--- a/Results/combinatorial_physiological_markers_top_10_joint.xlsx
+++ b/Results/combinatorial_physiological_markers_top_10_joint.xlsx
@@ -31,34 +31,34 @@
     <t>Theil-Sen Score</t>
   </si>
   <si>
-    <t>H-r Length*Contrac Tone/Max Amp EMG/Mean Amp EMG</t>
-  </si>
-  <si>
-    <t>H-r Length*Contrac Tone/Max Amp EMG/L-Thigh Circ</t>
-  </si>
-  <si>
-    <t>R-Thigh Circ*DIA Blood Pres 2/Contrac Tone/SYS Blood Pres 2</t>
-  </si>
-  <si>
-    <t>H-r Length/Max Amp EMG</t>
-  </si>
-  <si>
-    <t>H-r Length/Max Amp EMG/R-Thigh Circ</t>
-  </si>
-  <si>
-    <t>Contrac Tone/Isometric Strength/DIA Blood Pres 1</t>
-  </si>
-  <si>
-    <t>R-Thigh Circ*Contrac Tone/Isometric Strength/DIA Blood Pres 1</t>
-  </si>
-  <si>
-    <t>Contrac Tone/L-Thigh Circ/Isometric Strength</t>
-  </si>
-  <si>
-    <t>Contrac Tone/Max Amp EMG/Isometric Strength</t>
-  </si>
-  <si>
-    <t>H-r Length*Contrac Tone/Mean Amp EMG/DIA Blood Pres 1</t>
+    <t>R-Thigh Circ*DIA Blood Pres 1/H-r Latency/H-r Length</t>
+  </si>
+  <si>
+    <t>L-Thigh Circ*Isometric Strength/Contrac Tone/DIA Blood Pres 1</t>
+  </si>
+  <si>
+    <t>Relax Tone/Contrac Tone/DIA Blood Pres 1</t>
+  </si>
+  <si>
+    <t>H-r Length*Contrac Tone/Relax Tone/SYS Blood Pres 1</t>
+  </si>
+  <si>
+    <t>H-r Latency*H-r Amplitude/H-r Length</t>
+  </si>
+  <si>
+    <t>Relax Tone*SYS Blood Pres 1/H-r Length/Contrac Tone</t>
+  </si>
+  <si>
+    <t>L-Thigh Circ*DIA Blood Pres 1/H-r Length/DIA Blood Pres 2</t>
+  </si>
+  <si>
+    <t>R-Thigh Circ*DIA Blood Pres 2/L-Thigh Circ/Relax Tone</t>
+  </si>
+  <si>
+    <t>H-r Latency*H-r Length/R-Thigh Circ/DIA Blood Pres 1</t>
+  </si>
+  <si>
+    <t>R-Thigh Circ/Mean Amp EMG/H-r Length</t>
   </si>
 </sst>
 </file>
@@ -447,16 +447,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>0.4843444806067416</v>
+        <v>0.9451677264492083</v>
       </c>
       <c r="E2">
-        <v>0.1996497669819848</v>
+        <v>0.02857881955160838</v>
       </c>
       <c r="F2">
-        <v>2.468996456069895</v>
+        <v>0.1640286578322865</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -467,16 +467,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>0.4670219737741494</v>
+        <v>0.9243335142588104</v>
       </c>
       <c r="E3">
-        <v>0.2180216713236189</v>
+        <v>0.3162392969542204</v>
       </c>
       <c r="F3">
-        <v>1.281292216608996</v>
+        <v>0.5532269212891301</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -487,16 +487,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>0.464184550415224</v>
+        <v>0.9184757864316178</v>
       </c>
       <c r="E4">
-        <v>0.3694789021798852</v>
+        <v>0.02403678269209608</v>
       </c>
       <c r="F4">
-        <v>0.9893563228166137</v>
+        <v>0.3148349791429572</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>0.2599301264580161</v>
+        <v>0.9163350975581057</v>
       </c>
       <c r="E5">
-        <v>0.1635527565996226</v>
+        <v>0.0368262123402588</v>
       </c>
       <c r="F5">
-        <v>1.041285517286971</v>
+        <v>0.545868116109143</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -527,16 +527,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>0.2432469123506237</v>
+        <v>0.9140527322075508</v>
       </c>
       <c r="E6">
-        <v>0.1623283084133247</v>
+        <v>0.03642539666503267</v>
       </c>
       <c r="F6">
-        <v>2.026400566998397</v>
+        <v>0.6956058871825729</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -547,16 +547,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>0.8125433985607812</v>
+        <v>0.9094580665254975</v>
       </c>
       <c r="E7">
-        <v>0.2609114193168013</v>
+        <v>0.02519438568844277</v>
       </c>
       <c r="F7">
-        <v>4.224297589018403</v>
+        <v>0.7202745081436703</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -567,16 +567,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>0.7526162780626932</v>
+        <v>0.9090758345368709</v>
       </c>
       <c r="E8">
-        <v>0.3060466599701736</v>
+        <v>0.02541764311508142</v>
       </c>
       <c r="F8">
-        <v>2.361174076390924</v>
+        <v>0.7616154669688756</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -587,16 +587,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>0.7238857736005996</v>
+        <v>0.9059753968263917</v>
       </c>
       <c r="E9">
-        <v>0.2663559487518619</v>
+        <v>0.07649618404724408</v>
       </c>
       <c r="F9">
-        <v>2.410328758140974</v>
+        <v>0.4892259777381717</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -607,16 +607,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>0.6998036757416191</v>
+        <v>0.9038476392947589</v>
       </c>
       <c r="E10">
-        <v>0.2820858740375831</v>
+        <v>0.02290653305754983</v>
       </c>
       <c r="F10">
-        <v>1.985586782684177</v>
+        <v>0.1591962059013919</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -627,16 +627,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>0.6611101283141173</v>
+        <v>0.8999483370694419</v>
       </c>
       <c r="E11">
-        <v>0.1841894871091555</v>
+        <v>0.05263993378327225</v>
       </c>
       <c r="F11">
-        <v>5.337367116853676</v>
+        <v>0.1444350330952082</v>
       </c>
     </row>
   </sheetData>
